--- a/biology/Botanique/Dianthus_lumnitzeri/Dianthus_lumnitzeri.xlsx
+++ b/biology/Botanique/Dianthus_lumnitzeri/Dianthus_lumnitzeri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dianthus lumnitzeri est une espèce de plante de la famille des Caryophyllaceae et du genre Dianthus.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dianthus lumnitzeri est une plante herbacée vivace qui atteint des hauteurs de 20 à 30 centimètres. La tige est carrée et bleu-vert.
 Les feuilles de la base et de la tige sont disposées l'une en face de l'autre. Le limbe simple est linéaire avec une largeur de 1 à 3 mm. Le rétrécissement du limbe commence au-dessus du centre.
@@ -545,9 +559,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dianthus lumnitzeri a une présence rare dans l'Europe centrale. Elle n'est connue que dans relativement peu d'endroits dans la province florale de Pannonie. Elle a pour localité type le Hundsheimer Berg en Basse-Autriche[2]. Il y a plusieurs endroits dans les Petites Carpates en Slovaquie[2]. Il existe d'autres gisements dans les monts du Pilis et Vértes au nord-ouest de Budapest. Les populations des Pavlovské vrchy en Moravie du Sud sont également attribuées à Dianthus lumnitzeri, tandis que les populations au nord-est sont attribuées à Dianthus praecox (sv).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dianthus lumnitzeri a une présence rare dans l'Europe centrale. Elle n'est connue que dans relativement peu d'endroits dans la province florale de Pannonie. Elle a pour localité type le Hundsheimer Berg en Basse-Autriche. Il y a plusieurs endroits dans les Petites Carpates en Slovaquie. Il existe d'autres gisements dans les monts du Pilis et Vértes au nord-ouest de Budapest. Les populations des Pavlovské vrchy en Moravie du Sud sont également attribuées à Dianthus lumnitzeri, tandis que les populations au nord-est sont attribuées à Dianthus praecox (sv).
 Elle pousse dans les steppes rocheuses et gazonnées sur des terres calcaires. Elle est limitée au niveau d'altitude de la colline. Il y a des dépôts mineurs dans les prairies sèches pionnières carbonatées. Les espèces compagnes importantes sont les graminées en touffes telles que Carex humilis et les arbustes tels que Genista pilosa.
 </t>
         </is>
@@ -577,7 +593,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La première description de Dianthus lumnitzeri est de Johann Baptist Wiesbaur. L'épithète spécifique lumnitzeri rend hommage au botaniste autrichien Stephan Lumnitzer (1750-1806).
 </t>
@@ -608,9 +626,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dianthus lumnitzeri a pour parasite Coleophora riffelensis[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dianthus lumnitzeri a pour parasite Coleophora riffelensis.
 </t>
         </is>
       </c>
